--- a/FitnessData/static2/pso/analysis.xlsx
+++ b/FitnessData/static2/pso/analysis.xlsx
@@ -552,144 +552,144 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>101.2</v>
+        <v>93.95999999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>100.21</v>
+        <v>97.05</v>
       </c>
       <c r="C2" t="n">
-        <v>100.19</v>
+        <v>93.76000000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>100.87</v>
+        <v>94.37</v>
       </c>
       <c r="E2" t="n">
-        <v>97.36</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>107.01</v>
+        <v>91.48</v>
       </c>
       <c r="G2" t="n">
-        <v>99.66</v>
+        <v>95.86</v>
       </c>
       <c r="H2" t="n">
-        <v>99.84</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>100.3</v>
+        <v>91.26000000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>109.92</v>
+        <v>88.87</v>
       </c>
       <c r="K2" t="n">
-        <v>96.91</v>
+        <v>96.36</v>
       </c>
       <c r="L2" t="n">
-        <v>97.83</v>
+        <v>96.75</v>
       </c>
       <c r="M2" t="n">
-        <v>90.09</v>
+        <v>96.23999999999999</v>
       </c>
       <c r="N2" t="n">
-        <v>102.4</v>
+        <v>93.16</v>
       </c>
       <c r="O2" t="n">
-        <v>97.94</v>
+        <v>90.11</v>
       </c>
       <c r="P2" t="n">
-        <v>107.44</v>
+        <v>89.01000000000001</v>
       </c>
       <c r="Q2" t="n">
-        <v>99.48</v>
+        <v>95.17</v>
       </c>
       <c r="R2" t="n">
-        <v>94.45</v>
+        <v>99.3</v>
       </c>
       <c r="S2" t="n">
-        <v>93.93000000000001</v>
+        <v>89.97</v>
       </c>
       <c r="T2" t="n">
-        <v>97.76000000000001</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="U2" t="n">
-        <v>90.09</v>
+        <v>88.87</v>
       </c>
       <c r="V2" t="n">
-        <v>99.73950000000001</v>
+        <v>94.054</v>
       </c>
       <c r="W2" t="n">
-        <v>4.625017183467367</v>
+        <v>3.057708808551712</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>168.82</v>
+        <v>187.44</v>
       </c>
       <c r="B3" t="n">
-        <v>171.5</v>
+        <v>177.28</v>
       </c>
       <c r="C3" t="n">
-        <v>170.72</v>
+        <v>172.3</v>
       </c>
       <c r="D3" t="n">
-        <v>182.68</v>
+        <v>165.32</v>
       </c>
       <c r="E3" t="n">
-        <v>182.04</v>
+        <v>175.22</v>
       </c>
       <c r="F3" t="n">
-        <v>186.5</v>
+        <v>166.68</v>
       </c>
       <c r="G3" t="n">
-        <v>193.42</v>
+        <v>171.64</v>
       </c>
       <c r="H3" t="n">
-        <v>173.18</v>
+        <v>180.22</v>
       </c>
       <c r="I3" t="n">
-        <v>177.86</v>
+        <v>191.36</v>
       </c>
       <c r="J3" t="n">
-        <v>173.82</v>
+        <v>167.68</v>
       </c>
       <c r="K3" t="n">
-        <v>183.42</v>
+        <v>169.18</v>
       </c>
       <c r="L3" t="n">
-        <v>184.5</v>
+        <v>163.98</v>
       </c>
       <c r="M3" t="n">
-        <v>173.22</v>
+        <v>173.66</v>
       </c>
       <c r="N3" t="n">
-        <v>157.96</v>
+        <v>161.44</v>
       </c>
       <c r="O3" t="n">
-        <v>189.8</v>
+        <v>192.54</v>
       </c>
       <c r="P3" t="n">
-        <v>182.6</v>
+        <v>178.88</v>
       </c>
       <c r="Q3" t="n">
-        <v>184.94</v>
+        <v>167.78</v>
       </c>
       <c r="R3" t="n">
-        <v>178.88</v>
+        <v>163.44</v>
       </c>
       <c r="S3" t="n">
-        <v>197.58</v>
+        <v>183.26</v>
       </c>
       <c r="T3" t="n">
-        <v>169.04</v>
+        <v>167.68</v>
       </c>
       <c r="U3" t="n">
-        <v>157.96</v>
+        <v>161.44</v>
       </c>
       <c r="V3" t="n">
-        <v>179.124</v>
+        <v>173.849</v>
       </c>
       <c r="W3" t="n">
-        <v>9.493212201080141</v>
+        <v>9.27574420336804</v>
       </c>
     </row>
   </sheetData>
